--- a/data/trans_camb/P05A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P05A_R-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4774298479264508</v>
+        <v>0.1958505056336687</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.659933437665136</v>
+        <v>-0.5857461763799526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-30.67187947169847</v>
+        <v>-30.54491773035326</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.679029457726682</v>
+        <v>-4.262897598745902</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.102014199961195</v>
+        <v>-3.379912181671424</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-35.00602171278433</v>
+        <v>-35.12205581537169</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.5287187760730462</v>
+        <v>-0.6842656429845941</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.7113725605662279</v>
+        <v>-0.6539505806163424</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-31.47814245619191</v>
+        <v>-31.89931465545001</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.23652336532919</v>
+        <v>10.61307164262058</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.204430511031681</v>
+        <v>9.659540898394424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-22.29374454665744</v>
+        <v>-22.08101113524038</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.145813236759837</v>
+        <v>5.784270782228552</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.030392707887414</v>
+        <v>6.951489292479006</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-27.05106321444734</v>
+        <v>-26.63214642598115</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.693105680622029</v>
+        <v>6.675991706122892</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.344504066335011</v>
+        <v>6.993782891934259</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-25.82509759652947</v>
+        <v>-25.81643635035369</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01630021229209862</v>
+        <v>0.008129036890346388</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04296552397234384</v>
+        <v>-0.01768668545178636</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8530868813570782</v>
+        <v>-0.853959612458327</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1169283633185078</v>
+        <v>-0.109842875907527</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1061189093865919</v>
+        <v>-0.08450809013094303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8680305318104985</v>
+        <v>-0.8676547867075405</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01421238840533726</v>
+        <v>-0.01843480556713169</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0198710151407249</v>
+        <v>-0.01982621249407606</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8440718838846035</v>
+        <v>-0.8471256418227071</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3296905142319414</v>
+        <v>0.3445186410625161</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2946501003878613</v>
+        <v>0.3081315204646899</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.7109551325107603</v>
+        <v>-0.7147358899624711</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1810608407204839</v>
+        <v>0.1648200226896184</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.20518313360027</v>
+        <v>0.2036363897908941</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.7764371050965062</v>
+        <v>-0.7684077401632118</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1960988812951616</v>
+        <v>0.1999610944224298</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1875529378920191</v>
+        <v>0.2024050231496737</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.7648653573613317</v>
+        <v>-0.762284267790985</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-6.152099996307264</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-22.11336999242687</v>
+        <v>-22.11336999242688</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.117714707274758</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.39525708241021</v>
+        <v>-2.371091179591103</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.308603511688536</v>
+        <v>-4.116805891253691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-22.00475387448948</v>
+        <v>-21.68339837245416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.263977515144836</v>
+        <v>-8.335307657428954</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.69593862072485</v>
+        <v>-10.19296014014397</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-26.14590862515471</v>
+        <v>-25.69986371770732</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.371027628972539</v>
+        <v>-4.137885104651649</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.636794462479295</v>
+        <v>-6.00443741678767</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-22.62374462746908</v>
+        <v>-22.99102381731293</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.924882874342528</v>
+        <v>6.450989176621263</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.127767863033421</v>
+        <v>4.992121690156835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-14.67281416037214</v>
+        <v>-14.12546445899395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1613732049956317</v>
+        <v>0.8118584852458283</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.702053189608016</v>
+        <v>-1.942031842179126</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-18.4473396039656</v>
+        <v>-18.2748755598031</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.942921919896633</v>
+        <v>1.645948192925749</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3844727933246716</v>
+        <v>0.3783072292674923</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-17.28916557823235</v>
+        <v>-17.5293384339853</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.0810080529943131</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.6077067295269963</v>
+        <v>-0.6077067295269964</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07549455703022792</v>
+        <v>-0.07280851330544068</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1047415457410446</v>
+        <v>-0.1314172813998367</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6878750759515145</v>
+        <v>-0.6894856369421976</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2334573083903489</v>
+        <v>-0.2184052910739291</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2732957296115614</v>
+        <v>-0.2639755109533778</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6762661015359142</v>
+        <v>-0.6697091103700571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1257078872033051</v>
+        <v>-0.1216600477973248</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1635459465648296</v>
+        <v>-0.172924198445117</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6575416117329436</v>
+        <v>-0.6540229113528988</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2187435645706802</v>
+        <v>0.232130826552929</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1852132266081863</v>
+        <v>0.1807250103793143</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5300059888215369</v>
+        <v>-0.5116827009003241</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.004522196788887145</v>
+        <v>0.02421319491235859</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.04990453470534716</v>
+        <v>-0.05628140816113725</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5427047388121468</v>
+        <v>-0.5409935610236821</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0613661441637903</v>
+        <v>0.05100286625733851</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01277460143165234</v>
+        <v>0.01235354067969486</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.5478181793897313</v>
+        <v>-0.5520106121453686</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>11.07878234052609</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-9.162119701312291</v>
+        <v>-9.162119701312294</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>12.53364872208046</v>
@@ -1092,7 +1092,7 @@
         <v>11.45137622840404</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-8.730866809957988</v>
+        <v>-8.730866809957977</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.017164476343316</v>
+        <v>5.576167291491291</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.412393616634932</v>
+        <v>5.540085551746266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.65476036903723</v>
+        <v>-13.9473986001893</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.951219138380957</v>
+        <v>7.61180856551628</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.884740755303674</v>
+        <v>6.62690705055484</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.45533579466374</v>
+        <v>-12.41611122478832</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.202313308466428</v>
+        <v>7.962982200866548</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.809596621313074</v>
+        <v>7.633258793306073</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-11.9273658079692</v>
+        <v>-12.01834040930844</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.26147833093267</v>
+        <v>15.59330371571679</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.10733252221642</v>
+        <v>16.07823143037607</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.081988106160472</v>
+        <v>-4.567706726417323</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.74396722162636</v>
+        <v>17.58886312413385</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.59108332701189</v>
+        <v>16.46656137275142</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.736991248792377</v>
+        <v>-3.969278404288191</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.03535482575283</v>
+        <v>15.16282617221919</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.95986756775446</v>
+        <v>15.06507596098727</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-5.380535783665516</v>
+        <v>-5.397880875239067</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3944899822015475</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3262420297470616</v>
+        <v>-0.3262420297470617</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4535213832449174</v>
@@ -1197,7 +1197,7 @@
         <v>0.4110450544180168</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3133928666245384</v>
+        <v>-0.313392866624538</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1638285227883546</v>
+        <v>0.1792967955751619</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1733397975300973</v>
+        <v>0.1777561415048883</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4467877415330418</v>
+        <v>-0.4566359788834032</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2572598486361123</v>
+        <v>0.2551859311380326</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2214670093947202</v>
+        <v>0.220135439389584</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4197196613737327</v>
+        <v>-0.4147949064370194</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2790554214621017</v>
+        <v>0.2602573652504048</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.265114783652184</v>
+        <v>0.2616231780225297</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4053706631626084</v>
+        <v>-0.4104385454401857</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6113990264239302</v>
+        <v>0.609510619533066</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6399026815975052</v>
+        <v>0.6228412144316799</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1592304917177878</v>
+        <v>-0.1694115848275742</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7036916497720253</v>
+        <v>0.6994778856932884</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6567337602507564</v>
+        <v>0.6441491324859333</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1494418847524552</v>
+        <v>-0.1602990194467328</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5795245724236461</v>
+        <v>0.5751895870285204</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5752004423779654</v>
+        <v>0.5795475973552139</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2035546354454686</v>
+        <v>-0.2042398615301986</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>17.79069725587863</v>
+        <v>18.01572725559921</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.036750487442047</v>
+        <v>6.174576371164711</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.585376720572125</v>
+        <v>1.891840250829652</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.39906372696657</v>
+        <v>8.898138491858854</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09263935890788592</v>
+        <v>0.119732659467348</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.872668902405465</v>
+        <v>-2.671925769164135</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>14.73768578480448</v>
+        <v>14.66678418316059</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.304427339040812</v>
+        <v>4.10704353394378</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7136778118179614</v>
+        <v>0.5670625792067105</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>26.61478794973038</v>
+        <v>26.65151036090928</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.88048225368928</v>
+        <v>14.60079321192696</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.88531301722791</v>
+        <v>10.45678894948817</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.68564208155162</v>
+        <v>17.64774175566908</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.141378346644048</v>
+        <v>8.538104178318576</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.067315271188649</v>
+        <v>5.163469625075095</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>20.82862687422206</v>
+        <v>20.86826145430062</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.20883710610257</v>
+        <v>10.45836173311507</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.539724156660675</v>
+        <v>6.587848085460315</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6036147919894315</v>
+        <v>0.6112807588764585</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2025317342226099</v>
+        <v>0.2031535285072961</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05541484406833314</v>
+        <v>0.06336011701493213</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2523998850191453</v>
+        <v>0.2407821233823007</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.004251399372807779</v>
+        <v>0.003624899409253402</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.07742183553197486</v>
+        <v>-0.07187361370746967</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4479663962657218</v>
+        <v>0.4397918210891381</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1279963689117745</v>
+        <v>0.1224952358094077</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.02093079539521015</v>
+        <v>0.0157556474294351</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.071098929019498</v>
+        <v>1.074589692041713</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5792308851048111</v>
+        <v>0.5728746147722533</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.435281247462871</v>
+        <v>0.4154771767093031</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5360341192462302</v>
+        <v>0.5381659573227734</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2815634303307344</v>
+        <v>0.2596897799002836</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1543378500850425</v>
+        <v>0.1545512734448403</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6826311728169617</v>
+        <v>0.6940506360770192</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3393802255902263</v>
+        <v>0.3455699902087297</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2203175599351132</v>
+        <v>0.215433829003474</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>4.298770104895122</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-12.51130377345543</v>
+        <v>-12.51130377345544</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.784346411859986</v>
+        <v>7.573400700480382</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.014220630596265</v>
+        <v>4.222729681545326</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.09826934901841</v>
+        <v>-13.12443426127454</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.354874151307694</v>
+        <v>3.173160606180204</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.3017469340526309</v>
+        <v>-0.07249761010339766</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-15.98563953498972</v>
+        <v>-16.07411871122732</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.074954800726931</v>
+        <v>6.195578901514671</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.590954753557219</v>
+        <v>2.837039606178995</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-14.02902608983634</v>
+        <v>-13.93469473017022</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.31918439134178</v>
+        <v>12.74531575756656</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.63967440592722</v>
+        <v>8.773158022631906</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-8.839534647218841</v>
+        <v>-8.819535264662926</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.93394416642422</v>
+        <v>7.938847417487251</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.292633521482035</v>
+        <v>4.622141625739746</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-11.95034972042538</v>
+        <v>-11.95610828186227</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.385051663557963</v>
+        <v>9.535992061669198</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.930169793009654</v>
+        <v>5.952159896513594</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-11.03382585494427</v>
+        <v>-10.97784448267712</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.1343219251067632</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.3909356321549661</v>
+        <v>-0.3909356321549662</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2544508471915359</v>
+        <v>0.2468681194214348</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1301795588955869</v>
+        <v>0.1399883107949526</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4300323023690799</v>
+        <v>-0.429638062954715</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.09323942275602694</v>
+        <v>0.08751968095897068</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.008666010978989162</v>
+        <v>-0.002037799870639854</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4487550950486087</v>
+        <v>-0.4505851530491828</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1847337481093306</v>
+        <v>0.188319763483326</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.07775994855128428</v>
+        <v>0.08625492402985148</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.426084375304332</v>
+        <v>-0.42591277488119</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4369784311161529</v>
+        <v>0.4474182995054338</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3036679725378735</v>
+        <v>0.3164312236050837</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.309418563505565</v>
+        <v>-0.3094823103502655</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2342345937236198</v>
+        <v>0.2373746967961438</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1290923267689914</v>
+        <v>0.1390633055792126</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3585726604746498</v>
+        <v>-0.3581705948788006</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3002850902462263</v>
+        <v>0.3058508440817138</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1892239603297313</v>
+        <v>0.1916889929604901</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3524147329472567</v>
+        <v>-0.3528965690828257</v>
       </c>
     </row>
     <row r="34">
